--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/24_Çorum_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/24_Çorum_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2826B66C-0095-4965-BCE1-3FB0C1E12CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{448798C0-047E-4BF4-91AA-E21E4CC5369C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{1B00BC11-3D93-4DBF-9628-70E74CB1D75D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="656" xr2:uid="{5951C0A8-8F1F-4017-8F9A-1BD44DB9651E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{88E75720-B0D4-4D18-BFB7-1D266CAC8183}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5998E6E2-3D14-42B6-B032-C7679534B571}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B319AD18-96F9-41E7-A9A5-FC18ABC216AB}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{115133D8-39CC-4BD1-9215-1AFD235B8408}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A6161C53-7C80-4599-AA4F-D9B1657504CD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{BF8409F2-5315-4F53-A4B2-9407E072F07D}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DCEACFC0-EC24-42FA-8C67-7682D1186166}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{3F273078-8752-4900-9B3D-482CB61AE3EA}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8A2906C8-D247-4209-8B63-1B3DED714B3D}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{4563A3D6-8C65-4EBD-992D-AE619AEE03F9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C626233C-82AB-4999-AE4E-51EE95F94071}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C9664375-FC27-4A3F-B28E-B0D511C4E88E}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C747DDC3-F9A0-472F-8CEB-79F84FCEF897}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{7A7C38D4-2651-4C5A-97A0-C0364DB991DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CD82AF-64C5-4A87-9613-5CE525CD7778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4716AACA-D244-4C8D-9AB3-46114FA757B3}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2543,18 +2543,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CB21F0D9-34CF-4C4E-B9B9-7F5E6A200393}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{AB4C4B42-800A-463D-9A0D-4CB8B00D5425}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2563C0D5-7DEE-4C74-BBEE-3D168037EFD2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36AD2B6E-4ABC-444D-B90C-3FA2B929F022}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EE0E309-5D00-497A-9997-2BFF37C819C9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88FBC3E5-0B41-4C47-B733-B9BAFB72C37B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A01B3B2-00C8-419A-B579-0DF8A0A0A25C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AD341BB-B277-4456-AF60-D10820C725D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7974A66A-8D27-46B7-BDBD-EAB27E37E590}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7B605F5-AE98-4AD1-9874-45EFB436AB0A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05060529-242F-4362-9307-7300D57177F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{576C3A5B-7728-49DC-9F29-A75FE10500CE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36DED81B-44ED-4A17-94C1-32D2F8127D2D}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FFCF5605-B932-4A0A-B63F-81AB05C7EBFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E7AD443-6D77-430F-B779-3042E20F65FB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25C52D4F-06EA-4B06-9CBB-FFC1BF7E7EFE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F161806A-A274-4E7A-B8F3-43EE91D5FF2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4B8FF002-6341-45FA-8B1E-6886C59007E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C63578B-825F-4764-BF0B-9085A27DCB1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC3D3B9B-CE9B-4CA4-B06E-20458ECB825F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCB0FC79-DD82-4FEB-BC16-E98441191E23}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{282397D3-95CF-41BA-9964-510B627748B4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{43B0B5B5-85B5-4BF1-90BA-D60D8B70A6D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C3D96F5-63EF-46DF-AD04-C6D0BFEFEE48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2567,7 +2567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F815B78-16FD-42E4-887A-A4999A18A3D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE25D41-FF56-4DF4-BDAC-9C01D63301E9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3781,18 +3781,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8F4957C6-5B72-46AE-9D1A-E6386C404F7F}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1BA620B1-7FDE-4226-BB4A-C78FAC0AA3DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{41B3D9F9-7E33-4CF1-9A31-455BC6BF5117}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8D89C6CC-7BE5-407A-9F4E-C8CEE0D63FB6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{307A5C93-B725-4C94-B471-B015A4CB36A8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D44FA3F-7B45-4E38-90F7-48F1AA644384}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30A95E46-F12B-4776-80BE-684DC0CE84AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{769A992A-B6EA-4076-B6C0-4F37BCECF57B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64456B38-47A9-4332-830A-70038DD9A562}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{420C9FB1-9C4D-467E-90A8-3A459E5DC012}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE599EF2-5187-4B28-ACF2-61B4BF8698FD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F5F8DD1D-B6DE-4B00-ABA2-62E08DD5F202}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23C26F4B-2ED9-4A3B-BFBC-ECBA0C12B2A4}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A431E177-0FB9-4E55-B3B9-D184287CCF6D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0228893-C6F2-4382-9315-C93112C6FBE0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8724F4FD-B65C-4AD5-9018-0181C2F2784C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{82412FBC-A505-49CD-ADCB-5564B39DEE73}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CFF692D-71AD-496F-85D8-7F92F68B0A03}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2CE40EB4-1DFF-4A8C-B1E6-64CFC73869E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{11792E03-8ED7-4578-B71D-D2021478DFD5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4858E9B-DC9A-4489-810A-F27CC770A1C0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{22EAAA61-25EB-469A-B565-7F8B8C84B24A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{097FDDD6-72C6-4829-A889-C32A22B38E22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{649CD92C-F3CC-450C-B213-C757EEC98DC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3805,7 +3805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4929AC37-6242-4541-BF9C-FC904A1EA798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F104A-0D62-4BFB-BD64-724F8167D8B8}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5009,17 +5009,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF8E1922-08D4-4695-82A1-70BF48A333BC}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4A0892DF-179F-4E0A-9642-F7AAF3AD284D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F44723C5-52BC-4CC7-84F3-5AD88E7EEE41}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54A8E168-4A2E-4405-B139-148A8525F45E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42EA7177-BDA0-4ACF-AE52-42621848ED9E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6D86D29D-3E7F-46B0-A5E4-2CB9B37059E9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17AACF01-0740-4B3F-BFF9-02968A1E0EB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7010BDDC-7100-46E9-BE3E-160BBA2140B3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4F08298E-8F06-4D06-AB0A-D01547AC2324}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B81F410-0A7B-4403-8C32-04229DD5EA05}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{32F8EAB7-F886-45D3-B45A-78D7B54C7586}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4ED247DB-A767-4703-9528-13B67C43ADCC}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CFD53C3A-F612-4E1B-98BD-F1C622C2FFA5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7709E312-66BB-4277-B0BC-69AED282E2DC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D65F2CE7-0D5F-4FBD-A375-BBD2C93C6CFC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FFDC5628-9C38-4B8C-A8D5-2913A453CB97}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8EEA7703-8216-4262-95A1-EAD6282B307F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EFD7289-3555-4B15-9711-D69287AB1E76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C367872-F52F-4A63-A3F3-A433B48C6189}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D96DBD3D-9BFB-4E8A-8D9F-D26CF4EE7480}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FEC9E693-9D5E-42FE-923F-7FD3F5E839D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{269248DB-FDEB-4966-B6DF-D3F0058F211B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5032,7 +5032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEB04C8-30BC-4C0C-8CFD-AFA5CBFB7983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F7E90D-B021-49F8-B5D8-7751D39737F7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6232,18 +6232,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4CD0108B-979C-4110-BF6C-E32BAC2590C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D700F1E-720B-4074-A127-F88D24C17F2C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B6E01576-F351-4606-B68B-6B1A4139E7A7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D45F928-8977-4601-9502-B39B5AD9558C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FE44414-366C-4355-B646-78B18F333E4B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E0FCB74C-70B4-4050-8857-E5AC94AB670A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58A62BB1-97F7-4E71-ABFE-5E0FBDCD3DCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B56CE708-8002-4938-BC4C-B111B6760473}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5F466220-50AF-4685-A710-BE56F1FD2AD4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFE36F8A-6989-4915-9B51-EA4538770B0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{477E7C2C-A85F-4B37-9215-ABA3E4695986}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{70BEE460-EAD4-483B-9990-0837C0B3D3B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D3FF0C6-19B7-4DA6-8274-3355AB3A6005}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CFBBE4C-EE84-4333-8D9E-79986E7BDEAB}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D660EA57-EE59-4669-8E70-430BB4ECDF7C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AFADEBB7-B341-4209-9249-A02E8B5FFA3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{98269149-ACD4-4F78-B3B3-DBA4FE405336}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{503F0663-753D-44F9-9935-65235A73876F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF1F4655-0F94-48A9-95F9-241B706EE2E2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1CD1FDC4-447D-4997-ACDE-ACFCA6AC1B6C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{08590EDB-1D86-4959-B8B0-B81191485548}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEB72CDB-B1D5-4DB4-B79F-35ED37AA1DAD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{946F210E-9F97-42E8-9025-4DC444E1DCB0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6F91DD6E-B3FD-4B00-8F45-E12A4BFE631C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6256,7 +6256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A296E1-0903-4A44-A8C5-89D2F483F6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC5CD5-D549-4703-8735-5915FCA8CF4D}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7478,18 +7478,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48B0EAD4-C354-4352-9D6C-E69A7D057BC0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2E0DE0AD-17DE-455B-956D-FA920151292E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B95C6DDF-AD83-4AF0-9101-3530E9E18421}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C3FB4EA2-E4B1-4C48-8357-C7C7B45132AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2CAB216A-CD33-4F72-A962-CC10E736BC0B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55B91F79-5F5A-4657-ACA8-4119BC653435}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{552D5D58-40C5-4525-9408-AB8175644B4B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DE24183-42CC-4287-BDB5-188B00AAEB7D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D46D00B-2B5A-429C-ADBC-91CB2BFFAFB8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67BCF87D-83B3-4DC8-809A-B251351C9007}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59EB8907-EA31-43E5-909E-D12135B3DABC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B81C20DB-7C20-4CA0-A783-D4F6CF345591}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5553E4AD-CB2F-4B69-98F4-537539C4D3FE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A48A0587-E521-482C-991F-B3D117A1CAD1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5B98748-43BD-4C90-9792-44F526028DC6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{147510F2-C32B-4F9B-BA75-96B66A381003}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2ABE3A8C-BD82-46A6-8BDC-D29C12004277}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E7E6D78-9440-4355-9258-3D509CBF8416}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1152C165-D6A7-4560-BC10-B96AE57B6AF9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C914E15F-EE18-4FDD-8CC8-AE22766322E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B629EF4E-24E3-44D4-8BE6-87C9D95178E8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97FA5DD8-0C7A-4767-BC3C-3D5FFF625685}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5ADBED8C-BD0F-4C4B-BF37-217259DEFCCC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5F95F3F4-8ECC-45D9-BE8C-1FD009DA0E1C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7502,7 +7502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E37C62-A924-4D8C-843B-947CFA285F6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7243D00E-392B-45B3-8419-3B10DE4C401A}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8724,18 +8724,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0807AF77-E5D7-4173-8D5D-E7A57925430E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9A59FF2D-4F77-4E37-8B76-C3A6477C72B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{59BDB252-4B41-48DC-B87B-92BEC659069A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{70B1B238-CE8C-4B50-BF8A-E4C54485447B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AC625A2E-B4E8-499B-83A1-C990B2708612}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{45D87DE4-30AF-4CAF-AB82-E56231D07C6D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F66E9EE6-F18B-4BDD-98C5-E0FE12CCB47C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4F1B06C-1E2C-4978-A8A6-50DCD0DD0841}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16A3FA0C-6964-40AE-8A9E-AADC3144B84E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB09958E-537B-4E4F-AA0C-DCA825D6C78A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D848A16C-93ED-485E-B226-92D011DD4564}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{404426B0-772A-4A35-921E-A418F3847F07}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{954C1907-8300-4840-8E2C-DB4ED396169C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EFB65E95-C437-4552-A203-922595B04E60}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C0A228EF-2A33-4E4D-92FC-4BB74FC780B8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{66AFE50B-37ED-42B9-960A-680DC931A287}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{272DEC4C-D022-43D5-B4F6-843A990815BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1B55B426-F6EF-484B-8A3B-C83B015ED5C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8265298-85A7-485D-B35F-8264D3D5F24A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6563685F-2884-4B8E-98A4-23569F28BD54}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E8221DC-3582-484C-AFD8-044B53238B7F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EAA99152-AF81-4ACE-9FD5-EB5A40666950}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89238E8D-17DD-43E0-B55E-D4C5FDCA87A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6180D9BE-8DB0-4169-8333-A178D3C59A6A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8748,7 +8748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F01EBD-DB7E-4310-B34B-DE36CA4A3743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14A68C2-2A0D-4B9F-9011-61DA903AA3FD}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9970,18 +9970,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35893BB7-BED1-4B54-B79E-F083E200378F}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B69AE270-3938-4926-B57C-747433FA7755}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9DBC2E9-C0F9-47B3-8702-65C8477E3F08}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DAE4C59C-EE56-453F-96FE-F052C95D46AD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E8D96AE-4E3A-4122-9BAF-0D77A9DAD88D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{36775F93-5C1B-47C4-8B13-42FE5C9B5F18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{34E7EA4A-BAF2-456D-9978-405311AA51E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F501C79B-E1DE-4887-B9B2-4B103A95728D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F928422B-20BA-4F54-A479-764FCAB934BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F248AF0A-39B2-4549-B925-9686A6C0D002}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB4CD782-B6CA-498E-B074-B87A3E45547D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED93DDAF-0303-45DD-A666-93BF5DA6706A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{10343DD4-36E5-489E-8ACF-8C81724B749F}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A512D6F6-F208-49E0-AB07-C70E1BF73E2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE4C4061-0BEB-410D-B44C-64F85F02AE43}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A81F6A14-5C02-4D7A-B365-2A4777A041EA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11C5585F-D744-4BD7-8AD9-33CE2ED2AC8C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3A99C8B7-7815-4A49-8563-68C16AC07EDC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5147243-85EB-4C78-971A-C169A07F0304}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63EC7927-6C4D-4E61-9110-8E10DCA4968E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7FF7300C-07D8-405A-8B6D-2AFA93FDAD20}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3598B4C3-3448-498F-BA35-864644E4C5E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9C92283-A957-4940-B99C-318211E03365}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFECE96C-BF55-428C-9C24-B90EA8277870}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9994,7 +9994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7572E396-1BDF-4E3D-A66B-FC295E850D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A70878-89DA-419E-8245-AC2FEA16B680}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11216,18 +11216,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D47C4DD-C5DC-4A9E-96DD-3D846586F6FC}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{B886F5C9-24A9-45E4-B386-66DAC8666A47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{88AB9F71-A81B-407C-8694-C79CECA648F4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{07B6370A-1088-4524-BD7B-6964E7D5FAED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D03E69F-C6D7-47BB-A727-25D72788B835}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57C9F97A-7873-4C59-A470-C6A45680ADF9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2384B841-E81F-49D5-BA55-DE6F974478DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{42835106-6B0E-4074-B1D7-C0E6BB7E3591}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C12E66A-9897-40B9-9817-6ED473CA55CA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E0D26AEA-B60B-43D1-A0BF-0F8C44C55062}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5968D8F7-2C35-423D-A42A-55C4006C5ACE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB291D41-AA56-4583-A9BE-573AFC95E6BB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3974B360-0C14-4638-989F-B4CD0D84E727}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0D2BAF66-B477-4E00-A05D-C4DC2E0187C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1197EFBE-BF3A-4417-B813-19CD671B2B0F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F97F5561-9F17-4D30-B122-DDB7791A8DC8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DEB7C771-0A59-484B-8608-4F4D01A61CD8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2BD1F26C-8D28-4DE8-B1FF-F971F89CF6C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AE9E0340-97B6-42FA-B64A-2472FD9A207F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81D3110B-4489-4276-AFA8-DD197E0B88AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E1D5366-6095-4696-9D0E-75B113A098E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9606E529-446A-44A6-8832-0D6731E35D86}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6A06141-923B-40FF-9126-5187657979B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C628A19A-4BD2-447E-B84C-76364158D446}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11240,7 +11240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D95039-4B8C-4F7D-AB6B-9953A95458EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C0D2E7-03D3-4F6B-911B-00F36283E94B}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12454,18 +12454,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F296DB3-41EF-4E9C-BA4F-08FFF47ED6AC}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{D902B175-7AF0-4A14-966B-66462128F0C4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D4BA3F83-EB9C-40DD-A1FD-3AB5FB3BA34C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EFB323C-887A-4198-B813-B899270B7CA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{83C59BBD-36F9-47DB-8399-DE83327B23C4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D50DDD18-4BE7-4E68-99BC-00EB9DE4DDC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C17783D8-EC70-47D7-9C6C-F5AA6FCEAE85}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8780D07A-A1F2-45B1-9195-573FE99CB2CA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{590C2495-F89B-42B6-85FC-24A9B14BEC90}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9629DD86-B9C4-4784-93F9-4163B2CEF05D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7468D1C-DAB8-418D-94B5-1C33BCA3385F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57772435-D39C-4EF0-B3A3-B0C14F6451C8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{992807F3-781E-42FD-A0D6-1C9B93DBA591}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{FDD3C8EE-73CD-46CA-A0B0-25189B60E061}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D5A1373-3C66-49B0-9FDF-FE1616653BEE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{01F74E88-7C01-4E67-8106-0EFB85C6F4A7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDA83824-B0CB-4E76-8E7F-764D54F46B53}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{142134FB-6F8B-445F-A9FF-074C4E5B1405}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CC57C7B3-F30F-4CE6-B159-CBD017EC48BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0A03A12-4A48-4437-84FE-F2681A182A38}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{926200F6-9181-46C3-8A82-E61CE0315171}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B07E0144-A298-4DCE-BF82-9F38FD473F97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B48DF4AB-E16E-48F7-B02F-4EFBBBBFFB30}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{382F8295-38F8-41F2-A602-C9D293055898}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12478,7 +12478,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F0A5B-EE0A-4884-B89E-CEA73C448F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7423976D-5D44-461C-A580-68F21932EA94}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13692,18 +13692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40099D41-1329-45DC-8D5F-A2501CEEDBC5}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{8E028F91-AD0A-46BD-B3FB-3A4A700B39E8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8A00CFB-9D0C-4E25-A53F-B205805666F5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3259124F-D6F4-4E5A-960B-B7F142276DB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C3E62B3-071B-447D-B397-7C8A10F96617}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{49B16964-DADC-4A43-889A-E68AC0F4EA51}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{542A5AFB-4237-4DD1-91D2-AD9974B3301F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9904C16B-B35B-4667-8C31-AFC4D36E95E6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A68A2CB9-7309-4FC5-ABC5-126C79700AF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0AA1CEA4-88D9-4215-8938-3D0A874BFF2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A335009A-68B5-4689-B453-9F9F186E905F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A758554-E1F0-464C-BB48-577591E674AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81F1AA2F-9CA4-4980-96A8-51629B594B48}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{EDF19417-015D-4FCA-8CD0-7590FBCC970D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7AEDDD7F-C77D-44CD-8DC4-DE49133BD7EA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0646F470-753C-4185-8B4C-3EECE7E33598}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7353E650-3BCA-4C29-966F-7082B013F056}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB71B8E1-DC81-4E9F-BA2B-448C25F8F65E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{675D0641-4D27-42DB-ABD5-1BB253D5194A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0D11A80-7C07-4C4E-AA66-D1482452AE56}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9AB62A74-3155-47B7-A5A6-67E2F34F1818}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F03F9B44-B5A6-49B2-A74B-19614110B5FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DD00572-BDC1-489A-8889-56EA060F697C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1FF903F5-F20D-4E61-9314-7DD06C61757F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13716,7 +13716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAC1087-A95B-4BA9-B77C-16C4F83BC672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A17241-EE78-40D2-94BC-84253EE891BB}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14930,18 +14930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7E32BDFF-DDCF-45FD-BE8C-0080B6F5470C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{27046FAA-C0CF-45A7-A7EC-D14B3F2E08CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28585EF6-DDFD-4D55-A81E-6EAF03328CF3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B313EF8E-EE61-4AE8-87D1-2B7E65EB7488}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1982EF54-7BE6-41CE-A468-C0C479F41A2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5BD79274-398F-4777-A432-53A98D72D2D9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6C22C445-696C-4020-816E-B5CCA70D389B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2495450-119C-431D-8C1F-61FFD7844ACB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5D4A4903-F265-425F-B7B6-B5CA05AA1C43}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EA09A0CB-9E20-4F04-BBB5-3D21A1004E59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{472D2ACE-E05A-4F53-B0A4-8523FB7108F4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7F719BF-D199-479A-8122-92BC5C4B1CA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01E79FCF-3036-43EE-9027-E4C47D466550}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{9112D5F2-FD09-4A45-9624-891A37D9959B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{070F506A-37D6-45EF-8A01-B3B207D3A027}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EBCB33B9-48A4-46A9-907C-2D18EC9FAF4E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E02D62F-D25D-4402-99C6-3D1744E29B98}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FE4BC554-15BC-46BA-AB8E-68FDD002977A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2738B67B-ECAE-4F26-A372-68B32C323C4D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B615758-C5BA-4E53-BF06-21E9B01CE36D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0C1C165-97AF-45B2-B9FA-C2A6BC3C179C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C848DED5-C95C-4E1A-9D60-5C1BDC33CBF4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3FD8CF9-B29D-4EA8-B207-62995FEF0866}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B7CC1B5-DB15-481F-B0B4-6F26364D7525}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14954,7 +14954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1916CC35-8DD2-44FB-A920-F1FBD1937D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0015F28-E89D-4AA0-B472-8FD4553EB9A3}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16168,18 +16168,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E94C88B-09BA-453F-8E27-174F57B06338}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A9DEB8BF-02C0-4CBB-A7FE-5AD28BDCDEC6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F755B43D-E860-4FEB-BCE6-DA5E1A05F6B2}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B4D52430-A0A1-4A1A-8C86-AC4630CA78BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9AD06BD-C082-4584-8E4B-769073E9340D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6689A1D5-DE63-42CD-B52F-313118A5E726}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7E7E8B4C-A862-49C1-9B19-6672B1D33650}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94597ABC-40F1-42EA-8C5E-AF5A9E925ADD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B6ACF54-6324-436D-B5A3-448D8C42AFFF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2BAC55DC-70D2-48CE-8AD0-EEBD320620C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{76E1EF1F-53A1-41D2-9E7C-17D357439C5D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{518C8C1A-4E4D-42AC-B412-8C41D16093E9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3BEFC321-726C-4B25-AAE8-09BB5ADE1B98}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{601D9D66-5E84-47A7-A80B-E2721C5EC3B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF55C6CB-C4AB-4B65-958F-1F4DFDF06C2F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92F60BDF-2BE2-4C7E-BC49-4384DBC1027B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5F7045F4-9C07-49FC-83B6-D39CB7CA8BCD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4433761C-B566-4B13-907B-EA94F6A09763}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{976DD481-A4F1-49EC-9B06-945D90C03716}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEC69EF4-FF1B-4260-B236-7CCD953E82ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93E5C484-7178-489B-9425-138C64774E3D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BC6759ED-930B-4F2D-AF28-194068003645}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70E586B7-C759-4E5D-A8F5-CA6DAB8CBDC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C8AC58A-DB6A-495D-8C82-15560E29D217}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
